--- a/CodeVS/data/output/tugboat_schedule_algorithm_ODR_010.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ODR_010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Travel To Carrier</t>
   </si>
   <si>
-    <t>Sea-Sea</t>
+    <t>Sea-Sea Empty Barges</t>
   </si>
   <si>
     <t>Start Order Carrier</t>
@@ -127,7 +127,7 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Sea-River</t>
+    <t>Sea-River Load Barges</t>
   </si>
   <si>
     <t>Barge Release</t>
@@ -145,7 +145,7 @@
     <t>Customer Station</t>
   </si>
   <si>
-    <t>River-River</t>
+    <t>River-River Load Barges</t>
   </si>
   <si>
     <t>Loader-Customer</t>
@@ -220,9 +220,6 @@
     <t>ST_011 to ST_012</t>
   </si>
   <si>
-    <t>stop at ST_012</t>
-  </si>
-  <si>
     <t>ST_012 to ST_013</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>From Bang Hua Suea To Thai Ruam Thun, Mit Phon</t>
   </si>
   <si>
-    <t>stop at ST_014</t>
-  </si>
-  <si>
     <t>ST_014 to ST_013</t>
   </si>
   <si>
@@ -310,9 +304,6 @@
     <t>loading_point</t>
   </si>
   <si>
-    <t>water_level_point</t>
-  </si>
-  <si>
     <t>release_point</t>
   </si>
   <si>
@@ -352,7 +343,7 @@
     <t>B_025,B_078</t>
   </si>
   <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A2A15910&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A2613710&gt;], 'exit_datetime': datetime.datetime(2025, 2, 1, 7, 45)}</t>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B74243C170&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B7437AFB30&gt;], 'exit_datetime': datetime.datetime(2025, 2, 1, 7, 45)}</t>
   </si>
   <si>
     <t>ST_001</t>
@@ -753,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -892,13 +883,13 @@
         <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W2" t="s">
         <v>26</v>
       </c>
       <c r="X2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -933,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N3">
         <v>2000</v>
@@ -960,19 +951,19 @@
         <v>45689.32638888889</v>
       </c>
       <c r="T3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W3" t="s">
         <v>26</v>
       </c>
       <c r="X3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1007,13 +998,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N4">
         <v>400</v>
@@ -1034,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W4" t="s">
         <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1078,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N5">
         <v>800</v>
@@ -1105,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W5" t="s">
         <v>26</v>
       </c>
       <c r="X5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1149,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>1200</v>
@@ -1176,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W6" t="s">
         <v>26</v>
       </c>
       <c r="X6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1220,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N7">
         <v>1600</v>
@@ -1247,16 +1238,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W7" t="s">
         <v>26</v>
       </c>
       <c r="X7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1291,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>2000</v>
@@ -1318,16 +1309,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W8" t="s">
         <v>26</v>
       </c>
       <c r="X8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1362,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1389,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W9" t="s">
         <v>26</v>
       </c>
       <c r="X9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1433,13 +1424,13 @@
         <v>7.529411764705882</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1460,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W10" t="s">
         <v>26</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1504,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N11">
         <v>11800</v>
@@ -1531,16 +1522,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W11" t="s">
         <v>26</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1575,13 +1566,13 @@
         <v>270</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>3150</v>
@@ -1602,16 +1593,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W12" t="s">
         <v>26</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1646,13 +1637,13 @@
         <v>270</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>2900</v>
@@ -1673,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1717,13 +1708,13 @@
         <v>250</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>2600</v>
@@ -1744,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W14" t="s">
         <v>26</v>
       </c>
       <c r="X14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1788,13 +1779,13 @@
         <v>210</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>2500</v>
@@ -1815,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W15" t="s">
         <v>26</v>
       </c>
       <c r="X15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1859,13 +1850,13 @@
         <v>210</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>650</v>
@@ -1886,16 +1877,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W16" t="s">
         <v>26</v>
       </c>
       <c r="X16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1930,13 +1921,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>11800</v>
@@ -1957,16 +1948,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W17" t="s">
         <v>26</v>
       </c>
       <c r="X17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2001,13 +1992,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N18">
         <v>11800</v>
@@ -2028,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W18" t="s">
         <v>26</v>
       </c>
       <c r="X18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2072,13 +2063,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N19">
         <v>11800</v>
@@ -2099,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="V19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W19" t="s">
         <v>26</v>
       </c>
       <c r="X19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2143,13 +2134,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N20">
         <v>11800</v>
@@ -2170,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W20" t="s">
         <v>26</v>
       </c>
       <c r="X20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2214,13 +2205,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N21">
         <v>11800</v>
@@ -2241,16 +2232,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W21" t="s">
         <v>26</v>
       </c>
       <c r="X21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2285,13 +2276,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>11800</v>
@@ -2312,16 +2303,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="V22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W22" t="s">
         <v>26</v>
       </c>
       <c r="X22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2356,13 +2347,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N23">
         <v>11800</v>
@@ -2383,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W23" t="s">
         <v>26</v>
       </c>
       <c r="X23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2427,13 +2418,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N24">
         <v>11800</v>
@@ -2457,13 +2448,13 @@
         <v>29</v>
       </c>
       <c r="V24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W24" t="s">
         <v>26</v>
       </c>
       <c r="X24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2498,13 +2489,13 @@
         <v>4.752941176470588</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N25">
         <v>11800</v>
@@ -2525,16 +2516,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
+        <v>116</v>
+      </c>
+      <c r="V25" t="s">
         <v>119</v>
       </c>
-      <c r="V25" t="s">
-        <v>122</v>
-      </c>
       <c r="W25" t="s">
         <v>26</v>
       </c>
       <c r="X25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2554,28 +2545,28 @@
         <v>45690.90125927124</v>
       </c>
       <c r="F26" s="2">
-        <v>45690.90125927124</v>
+        <v>45690.91002577289</v>
       </c>
       <c r="G26">
         <v>13.21039603972222</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.2103960396039604</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>4.752941176470588</v>
       </c>
       <c r="K26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N26">
         <v>11800</v>
@@ -2596,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W26" t="s">
         <v>26</v>
       </c>
       <c r="X26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2619,13 +2610,13 @@
         <v>69</v>
       </c>
       <c r="D27" s="2">
-        <v>45690.90125927124</v>
+        <v>45690.91002577289</v>
       </c>
       <c r="E27" s="2">
-        <v>45690.90125927124</v>
+        <v>45690.91002577289</v>
       </c>
       <c r="F27" s="2">
-        <v>45690.91002577289</v>
+        <v>45690.91879227455</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2637,16 +2628,16 @@
         <v>0.2103960396039604</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>4.752941176470588</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N27">
         <v>11800</v>
@@ -2667,60 +2658,57 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W27" t="s">
         <v>26</v>
       </c>
       <c r="X27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="2">
-        <v>45690.91002577289</v>
+        <v>45690.91879227455</v>
       </c>
       <c r="E28" s="2">
-        <v>45690.91002577289</v>
+        <v>45690.91879227455</v>
       </c>
       <c r="F28" s="2">
-        <v>45690.91879227455</v>
+        <v>45691.02295894121</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.2103960396039604</v>
+        <v>150</v>
       </c>
       <c r="J28">
-        <v>4.752941176470588</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
-        <v>100</v>
-      </c>
       <c r="N28">
-        <v>11800</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2738,24 +2726,24 @@
         <v>0</v>
       </c>
       <c r="U28" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" t="s">
+        <v>119</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
         <v>121</v>
-      </c>
-      <c r="V28" t="s">
-        <v>122</v>
-      </c>
-      <c r="W28" t="s">
-        <v>26</v>
-      </c>
-      <c r="X28" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -2767,7 +2755,7 @@
         <v>45690.91879227455</v>
       </c>
       <c r="F29" s="2">
-        <v>45691.02295894121</v>
+        <v>45690.93962560788</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2776,19 +2764,22 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
+      <c r="M29" t="s">
+        <v>106</v>
+      </c>
       <c r="N29">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2809,13 +2800,13 @@
         <v>28</v>
       </c>
       <c r="V29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W29" t="s">
         <v>26</v>
       </c>
       <c r="X29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2829,13 +2820,13 @@
         <v>72</v>
       </c>
       <c r="D30" s="2">
-        <v>45690.91879227455</v>
+        <v>45690.93962560788</v>
       </c>
       <c r="E30" s="2">
-        <v>45690.91879227455</v>
+        <v>45690.93962560788</v>
       </c>
       <c r="F30" s="2">
-        <v>45690.93962560788</v>
+        <v>45690.96045894121</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2850,16 +2841,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N30">
-        <v>9300</v>
+        <v>6150</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2880,13 +2871,13 @@
         <v>28</v>
       </c>
       <c r="V30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W30" t="s">
         <v>26</v>
       </c>
       <c r="X30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2900,13 +2891,13 @@
         <v>73</v>
       </c>
       <c r="D31" s="2">
-        <v>45690.93962560788</v>
+        <v>45690.96045894121</v>
       </c>
       <c r="E31" s="2">
-        <v>45690.93962560788</v>
+        <v>45690.96045894121</v>
       </c>
       <c r="F31" s="2">
-        <v>45690.96045894121</v>
+        <v>45690.98129227455</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2921,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N31">
-        <v>6150</v>
+        <v>3250</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2951,13 +2942,13 @@
         <v>28</v>
       </c>
       <c r="V31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W31" t="s">
         <v>26</v>
       </c>
       <c r="X31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2971,13 +2962,13 @@
         <v>74</v>
       </c>
       <c r="D32" s="2">
-        <v>45690.96045894121</v>
+        <v>45690.98129227455</v>
       </c>
       <c r="E32" s="2">
-        <v>45690.96045894121</v>
+        <v>45690.98129227455</v>
       </c>
       <c r="F32" s="2">
-        <v>45690.98129227455</v>
+        <v>45691.00212560788</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2992,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N32">
-        <v>3250</v>
+        <v>650</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -3022,13 +3013,13 @@
         <v>28</v>
       </c>
       <c r="V32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
       </c>
       <c r="X32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3042,13 +3033,13 @@
         <v>75</v>
       </c>
       <c r="D33" s="2">
-        <v>45690.98129227455</v>
+        <v>45691.00212560788</v>
       </c>
       <c r="E33" s="2">
-        <v>45690.98129227455</v>
+        <v>45691.00212560788</v>
       </c>
       <c r="F33" s="2">
-        <v>45691.00212560788</v>
+        <v>45691.02295894121</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3063,16 +3054,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33" t="s">
-        <v>108</v>
-      </c>
       <c r="N33">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -3093,33 +3081,33 @@
         <v>28</v>
       </c>
       <c r="V33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W33" t="s">
         <v>26</v>
       </c>
       <c r="X33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="2">
-        <v>45691.00212560788</v>
+        <v>45690.92708333334</v>
       </c>
       <c r="E34" s="2">
-        <v>45691.00212560788</v>
+        <v>45690.92708333334</v>
       </c>
       <c r="F34" s="2">
-        <v>45691.02295894121</v>
+        <v>45690.92708333334</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3128,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -3161,33 +3149,33 @@
         <v>28</v>
       </c>
       <c r="V34" t="s">
+        <v>120</v>
+      </c>
+      <c r="W34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34" t="s">
         <v>122</v>
-      </c>
-      <c r="W34" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="2">
-        <v>45690.92708333334</v>
+        <v>45691</v>
       </c>
       <c r="E35" s="2">
-        <v>45690.92708333334</v>
+        <v>45691</v>
       </c>
       <c r="F35" s="2">
-        <v>45690.92708333334</v>
+        <v>45691.06944444445</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3199,16 +3187,19 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35" t="s">
+        <v>97</v>
+      </c>
       <c r="N35">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3229,21 +3220,21 @@
         <v>28</v>
       </c>
       <c r="V35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W35" t="s">
         <v>26</v>
       </c>
       <c r="X35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>78</v>
@@ -3255,7 +3246,7 @@
         <v>45691</v>
       </c>
       <c r="F36" s="2">
-        <v>45691.06944444445</v>
+        <v>45691.01388888889</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3267,19 +3258,19 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N36">
-        <v>11800</v>
+        <v>2500</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3300,13 +3291,13 @@
         <v>28</v>
       </c>
       <c r="V36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W36" t="s">
         <v>26</v>
       </c>
       <c r="X36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3320,13 +3311,13 @@
         <v>79</v>
       </c>
       <c r="D37" s="2">
-        <v>45691</v>
+        <v>45691.01388888889</v>
       </c>
       <c r="E37" s="2">
-        <v>45691</v>
+        <v>45691.01388888889</v>
       </c>
       <c r="F37" s="2">
-        <v>45691.01388888889</v>
+        <v>45691.02777777778</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3341,16 +3332,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N37">
-        <v>2500</v>
+        <v>5650</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3371,13 +3362,13 @@
         <v>28</v>
       </c>
       <c r="V37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W37" t="s">
         <v>26</v>
       </c>
       <c r="X37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3391,13 +3382,13 @@
         <v>80</v>
       </c>
       <c r="D38" s="2">
-        <v>45691.01388888889</v>
+        <v>45691.02777777778</v>
       </c>
       <c r="E38" s="2">
-        <v>45691.01388888889</v>
+        <v>45691.02777777778</v>
       </c>
       <c r="F38" s="2">
-        <v>45691.02777777778</v>
+        <v>45691.04166666666</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3412,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N38">
-        <v>5650</v>
+        <v>8550</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -3442,13 +3433,13 @@
         <v>28</v>
       </c>
       <c r="V38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W38" t="s">
         <v>26</v>
       </c>
       <c r="X38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3462,13 +3453,13 @@
         <v>81</v>
       </c>
       <c r="D39" s="2">
-        <v>45691.02777777778</v>
+        <v>45691.04166666666</v>
       </c>
       <c r="E39" s="2">
-        <v>45691.02777777778</v>
+        <v>45691.04166666666</v>
       </c>
       <c r="F39" s="2">
-        <v>45691.04166666666</v>
+        <v>45691.05555555555</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3483,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N39">
-        <v>8550</v>
+        <v>11150</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3513,13 +3504,13 @@
         <v>28</v>
       </c>
       <c r="V39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W39" t="s">
         <v>26</v>
       </c>
       <c r="X39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3533,13 +3524,13 @@
         <v>82</v>
       </c>
       <c r="D40" s="2">
-        <v>45691.04166666666</v>
+        <v>45691.05555555555</v>
       </c>
       <c r="E40" s="2">
-        <v>45691.04166666666</v>
+        <v>45691.05555555555</v>
       </c>
       <c r="F40" s="2">
-        <v>45691.05555555555</v>
+        <v>45691.06944444445</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3554,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N40">
-        <v>11150</v>
+        <v>11800</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -3584,54 +3575,54 @@
         <v>28</v>
       </c>
       <c r="V40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W40" t="s">
         <v>26</v>
       </c>
       <c r="X40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="2">
-        <v>45691.05555555555</v>
+        <v>45691.06944444445</v>
       </c>
       <c r="E41" s="2">
-        <v>45691.05555555555</v>
+        <v>45691.06944444445</v>
       </c>
       <c r="F41" s="2">
-        <v>45691.06944444445</v>
+        <v>45691.62760225884</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.8791208791208791</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="K41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N41">
         <v>11800</v>
@@ -3655,21 +3646,21 @@
         <v>28</v>
       </c>
       <c r="V41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W41" t="s">
         <v>26</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>84</v>
@@ -3678,31 +3669,31 @@
         <v>45691.06944444445</v>
       </c>
       <c r="E42" s="2">
-        <v>45691.06944444445</v>
+        <v>45691.31944444445</v>
       </c>
       <c r="F42" s="2">
-        <v>45691.62760225884</v>
+        <v>45691.3286019536</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>0.8791208791208791</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="J42">
         <v>4.55</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N42">
         <v>11800</v>
@@ -3726,13 +3717,13 @@
         <v>28</v>
       </c>
       <c r="V42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W42" t="s">
         <v>26</v>
       </c>
       <c r="X42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3746,34 +3737,34 @@
         <v>85</v>
       </c>
       <c r="D43" s="2">
-        <v>45691.06944444445</v>
+        <v>45691.3286019536</v>
       </c>
       <c r="E43" s="2">
-        <v>45691.31944444445</v>
+        <v>45691.3286019536</v>
       </c>
       <c r="F43" s="2">
-        <v>45691.31944444445</v>
+        <v>45691.33775946275</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="K43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N43">
         <v>11800</v>
@@ -3794,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="V43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W43" t="s">
         <v>26</v>
       </c>
       <c r="X43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3817,13 +3808,13 @@
         <v>86</v>
       </c>
       <c r="D44" s="2">
-        <v>45691.31944444445</v>
+        <v>45691.33775946275</v>
       </c>
       <c r="E44" s="2">
-        <v>45691.31944444445</v>
+        <v>45691.33775946275</v>
       </c>
       <c r="F44" s="2">
-        <v>45691.3286019536</v>
+        <v>45691.34691697191</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3835,16 +3826,16 @@
         <v>0.2197802197802198</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="K44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N44">
         <v>11800</v>
@@ -3865,16 +3856,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="V44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W44" t="s">
         <v>26</v>
       </c>
       <c r="X44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3888,13 +3879,13 @@
         <v>87</v>
       </c>
       <c r="D45" s="2">
-        <v>45691.3286019536</v>
+        <v>45691.34691697191</v>
       </c>
       <c r="E45" s="2">
-        <v>45691.3286019536</v>
+        <v>45691.34691697191</v>
       </c>
       <c r="F45" s="2">
-        <v>45691.33775946275</v>
+        <v>45691.35607448107</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3909,13 +3900,13 @@
         <v>4.55</v>
       </c>
       <c r="K45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N45">
         <v>11800</v>
@@ -3936,60 +3927,60 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="V45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W45" t="s">
         <v>26</v>
       </c>
       <c r="X45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="2">
-        <v>45691.33775946275</v>
+        <v>45691.35607448107</v>
       </c>
       <c r="E46" s="2">
-        <v>45691.33775946275</v>
+        <v>45691.35607448107</v>
       </c>
       <c r="F46" s="2">
-        <v>45691.34691697191</v>
+        <v>45691.42899114773</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0.2197802197802198</v>
+        <v>1.75</v>
       </c>
       <c r="J46">
-        <v>4.55</v>
+        <v>1800</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N46">
-        <v>11800</v>
+        <v>3150</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -4007,60 +3998,60 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46" t="s">
         <v>120</v>
       </c>
-      <c r="V46" t="s">
-        <v>123</v>
-      </c>
       <c r="W46" t="s">
         <v>26</v>
       </c>
       <c r="X46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="2">
-        <v>45691.34691697191</v>
+        <v>45691.42899114773</v>
       </c>
       <c r="E47" s="2">
-        <v>45691.34691697191</v>
+        <v>45691.42899114773</v>
       </c>
       <c r="F47" s="2">
-        <v>45691.35607448107</v>
+        <v>45691.4956578144</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0.2197802197802198</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="J47">
-        <v>4.55</v>
+        <v>1800</v>
       </c>
       <c r="K47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N47">
-        <v>11800</v>
+        <v>2900</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -4078,16 +4069,16 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="V47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W47" t="s">
         <v>26</v>
       </c>
       <c r="X47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4101,13 +4092,13 @@
         <v>90</v>
       </c>
       <c r="D48" s="2">
-        <v>45691.35607448107</v>
+        <v>45691.4956578144</v>
       </c>
       <c r="E48" s="2">
-        <v>45691.35607448107</v>
+        <v>45691.4956578144</v>
       </c>
       <c r="F48" s="2">
-        <v>45691.42899114773</v>
+        <v>45691.55538003662</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4116,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1.75</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="J48">
         <v>1800</v>
       </c>
       <c r="K48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N48">
-        <v>3150</v>
+        <v>2600</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -4152,13 +4143,13 @@
         <v>29</v>
       </c>
       <c r="V48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W48" t="s">
         <v>26</v>
       </c>
       <c r="X48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4172,13 +4163,13 @@
         <v>91</v>
       </c>
       <c r="D49" s="2">
-        <v>45691.42899114773</v>
+        <v>45691.55538003662</v>
       </c>
       <c r="E49" s="2">
-        <v>45691.42899114773</v>
+        <v>45691.55538003662</v>
       </c>
       <c r="F49" s="2">
-        <v>45691.4956578144</v>
+        <v>45691.61301892551</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4187,22 +4178,22 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1.611111111111111</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="J49">
         <v>1800</v>
       </c>
       <c r="K49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="N49">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -4223,13 +4214,13 @@
         <v>29</v>
       </c>
       <c r="V49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W49" t="s">
         <v>26</v>
       </c>
       <c r="X49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4243,13 +4234,13 @@
         <v>92</v>
       </c>
       <c r="D50" s="2">
-        <v>45691.4956578144</v>
+        <v>45691.61301892551</v>
       </c>
       <c r="E50" s="2">
-        <v>45691.4956578144</v>
+        <v>45691.61301892551</v>
       </c>
       <c r="F50" s="2">
-        <v>45691.55538003662</v>
+        <v>45691.62760225884</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4258,22 +4249,22 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1.444444444444444</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="J50">
         <v>1800</v>
       </c>
       <c r="K50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N50">
-        <v>2600</v>
+        <v>650</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -4294,155 +4285,13 @@
         <v>29</v>
       </c>
       <c r="V50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W50" t="s">
         <v>26</v>
       </c>
       <c r="X50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45691.55538003662</v>
-      </c>
-      <c r="E51" s="2">
-        <v>45691.55538003662</v>
-      </c>
-      <c r="F51" s="2">
-        <v>45691.61301892551</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="J51">
-        <v>1800</v>
-      </c>
-      <c r="K51" t="s">
-        <v>97</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
-        <v>101</v>
-      </c>
-      <c r="N51">
-        <v>2500</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="U51" t="s">
-        <v>29</v>
-      </c>
-      <c r="V51" t="s">
-        <v>123</v>
-      </c>
-      <c r="W51" t="s">
-        <v>26</v>
-      </c>
-      <c r="X51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="2">
-        <v>45691.61301892551</v>
-      </c>
-      <c r="E52" s="2">
-        <v>45691.61301892551</v>
-      </c>
-      <c r="F52" s="2">
-        <v>45691.62760225884</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="J52">
-        <v>1800</v>
-      </c>
-      <c r="K52" t="s">
-        <v>97</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" t="s">
-        <v>108</v>
-      </c>
-      <c r="N52">
-        <v>650</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="U52" t="s">
-        <v>29</v>
-      </c>
-      <c r="V52" t="s">
-        <v>123</v>
-      </c>
-      <c r="W52" t="s">
-        <v>26</v>
-      </c>
-      <c r="X52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
